--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail7 Features.xlsx
@@ -1625,7 +1625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1636,29 +1636,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1679,115 +1677,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1804,72 +1792,66 @@
         <v>2.905887586933329e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.03014574223701083</v>
+        <v>1.416262767567805e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.109917177236663</v>
+        <v>5.566413356293833e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.416262767567805e-06</v>
+        <v>-0.04213012449683292</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.566413356293833e-06</v>
+        <v>0.3335882113023647</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04213012449683292</v>
+        <v>0.1127262538396875</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3335882113023647</v>
+        <v>1.436528202358607</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1127262538396875</v>
+        <v>1.481933920340132</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.348682704926918</v>
+        <v>3.716116478227447</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.481933920340132</v>
+        <v>5.361048922946345e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.716116478227447</v>
+        <v>9855240.167045344</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.361048922946345e-14</v>
+        <v>9.950215387907918e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9855240.167045344</v>
+        <v>5.206959443378057</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.950215387907918e-06</v>
+        <v>0.0001113591561217226</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.206959443378057</v>
+        <v>7.596124001760055</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001113591561217226</v>
+        <v>1.459129686173718</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.596124001760055</v>
+        <v>0.006425545786604083</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.459129686173718</v>
+        <v>3.346906671406933</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006425545786604083</v>
+        <v>0.9359843952460085</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.346906671406933</v>
+        <v>1.872561956196183</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9359843952460085</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.872561956196183</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1994013583483287</v>
       </c>
     </row>
@@ -1884,72 +1866,66 @@
         <v>2.777643761664701e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2288499649026258</v>
+        <v>8.686994811208614e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.557922132927139</v>
+        <v>5.558969969778074e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.686994811208614e-07</v>
+        <v>-0.012037068916058</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.558969969778074e-06</v>
+        <v>0.2404364136242458</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.012037068916058</v>
+        <v>0.0577895851665697</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2404364136242458</v>
+        <v>1.419318996046851</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0577895851665697</v>
+        <v>1.475023333602865</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.332189482969521</v>
+        <v>3.726567420483462</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.475023333602865</v>
+        <v>5.331021585315833e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.726567420483462</v>
+        <v>9796953.838338628</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.331021585315833e-14</v>
+        <v>9.87275932281929e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>9796953.838338628</v>
+        <v>5.116730751108645</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.87275932281929e-06</v>
+        <v>0.0001205810138980248</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.116730751108645</v>
+        <v>9.096462687007071</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001205810138980248</v>
+        <v>1.157166939459365</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.096462687007071</v>
+        <v>0.009977552372949051</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.157166939459365</v>
+        <v>3.026865114371473</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009977552372949051</v>
+        <v>0.9356136009947188</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.026865114371473</v>
+        <v>1.893275347438242</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9356136009947188</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.893275347438242</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1985000193347327</v>
       </c>
     </row>
@@ -1964,72 +1940,66 @@
         <v>2.772257544096279e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2353371709151747</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.561124778407634</v>
+        <v>5.558724391161536e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.008511544721358918</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.558724391161536e-06</v>
+        <v>0.1744926376613856</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.008511544721358918</v>
+        <v>0.03045911889196768</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1744926376613856</v>
+        <v>1.405030656390736</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03045911889196768</v>
+        <v>1.436037283859952</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.317334530354282</v>
+        <v>3.788563042542005</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.436037283859952</v>
+        <v>5.15797662700914e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.788563042542005</v>
+        <v>10085297.72648004</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.15797662700914e-14</v>
+        <v>9.531863406905995e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10085297.72648004</v>
+        <v>5.246344641929324</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.531863406905995e-06</v>
+        <v>0.0001349028478102889</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.246344641929324</v>
+        <v>10.02339677698927</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001349028478102889</v>
+        <v>1.200560854000058</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.02339677698927</v>
+        <v>0.013553484464994</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.200560854000058</v>
+        <v>3.00151565788333</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.013553484464994</v>
+        <v>0.9346225534332175</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.00151565788333</v>
+        <v>1.877491774922733</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9346225534332175</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.877491774922733</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1897987270586687</v>
       </c>
     </row>
@@ -2044,72 +2014,66 @@
         <v>2.785339733509292e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2687877101136668</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.566603246848151</v>
+        <v>5.562941021591206e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.02050979357654539</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.562941021591206e-06</v>
+        <v>0.1459750599141167</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02050979357654539</v>
+        <v>0.02171515706408772</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1459750599141167</v>
+        <v>1.408438844830594</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02171515706408772</v>
+        <v>1.424433670039326</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.321554205990024</v>
+        <v>3.852704848847194</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.424433670039326</v>
+        <v>4.987660998131736e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.852704848847194</v>
+        <v>10741591.20167479</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.987660998131736e-14</v>
+        <v>9.100483609757627e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10741591.20167479</v>
+        <v>5.754852117014523</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.100483609757627e-06</v>
+        <v>0.000138489779966988</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.754852117014523</v>
+        <v>9.897742266461043</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000138489779966988</v>
+        <v>1.291783319715677</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.897742266461043</v>
+        <v>0.01356719311468039</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.291783319715677</v>
+        <v>3.131681368343505</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01356719311468039</v>
+        <v>0.9340285645811985</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.131681368343505</v>
+        <v>1.882440048466467</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9340285645811985</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.882440048466467</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1921683365921634</v>
       </c>
     </row>
@@ -2124,72 +2088,66 @@
         <v>2.791503772740945e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3256287318060114</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.546135453969343</v>
+        <v>5.569671581613735e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.02691584625192577</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.569671581613735e-06</v>
+        <v>0.1384285971038124</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02691584625192577</v>
+        <v>0.01988427383467272</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1384285971038124</v>
+        <v>1.395475881875726</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01988427383467272</v>
+        <v>1.614190505227947</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.312243348484523</v>
+        <v>3.840953915574604</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.614190505227947</v>
+        <v>5.018225971032293e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.840953915574604</v>
+        <v>10783652.1130105</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.018225971032293e-14</v>
+        <v>8.907180275476551e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>10783652.1130105</v>
+        <v>5.835552107522612</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.907180275476551e-06</v>
+        <v>0.000136416926088567</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.835552107522612</v>
+        <v>8.743152698450691</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000136416926088567</v>
+        <v>1.470001307728361</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.743152698450691</v>
+        <v>0.01042808076262318</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.470001307728361</v>
+        <v>3.26646716268386</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01042808076262318</v>
+        <v>0.929330582723176</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.26646716268386</v>
+        <v>1.878899845815578</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.929330582723176</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.878899845815578</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1916504558553081</v>
       </c>
     </row>
@@ -2204,72 +2162,66 @@
         <v>2.789607439353233e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3906458476575891</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.503778244996728</v>
+        <v>5.577531961303737e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.02876487749273922</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.577531961303737e-06</v>
+        <v>0.1371601409081226</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02876487749273922</v>
+        <v>0.01963986508052519</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1371601409081226</v>
+        <v>1.416956446075222</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01963986508052519</v>
+        <v>1.484616676005649</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.332719518496891</v>
+        <v>3.712509660700047</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.484616676005649</v>
+        <v>5.371470831523822e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.712509660700047</v>
+        <v>10150138.90829119</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.371470831523822e-14</v>
+        <v>9.601653975994918e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>10150138.90829119</v>
+        <v>5.533975005235459</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.601653975994918e-06</v>
+        <v>0.0001271915123539249</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.533975005235459</v>
+        <v>8.120437407902978</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001271915123539249</v>
+        <v>1.406539525410274</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.120437407902978</v>
+        <v>0.008387199581944203</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.406539525410274</v>
+        <v>3.273254506288573</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008387199581944203</v>
+        <v>0.9318066844212887</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.273254506288573</v>
+        <v>1.891610134264581</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9318066844212887</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.891610134264581</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1913246771598867</v>
       </c>
     </row>
@@ -2284,72 +2236,66 @@
         <v>2.780127590414475e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4585161748891619</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.44459690926841</v>
+        <v>5.585507686173036e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.02831379292422169</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.585507686173036e-06</v>
+        <v>0.138005384254433</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02831379292422169</v>
+        <v>0.0198464636052695</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.138005384254433</v>
+        <v>1.434256205846269</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0198464636052695</v>
+        <v>1.444050717956423</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.348034281550072</v>
+        <v>3.633961565607133</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.444050717956423</v>
+        <v>4.801109327883697e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.633961565607133</v>
+        <v>11540135.43608747</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.801109327883697e-14</v>
+        <v>8.585089739621272e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>11540135.43608747</v>
+        <v>6.393864186763865</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.585089739621272e-06</v>
+        <v>0.000123681985879427</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6.393864186763865</v>
+        <v>8.829944116217902</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000123681985879427</v>
+        <v>1.181857773247952</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.829944116217902</v>
+        <v>0.009643226326529879</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.181857773247952</v>
+        <v>3.003271563382283</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009643226326529879</v>
+        <v>0.933380120914321</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.003271563382283</v>
+        <v>1.882610847890434</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.933380120914321</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.882610847890434</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2028490156771424</v>
       </c>
     </row>
@@ -2364,72 +2310,66 @@
         <v>2.762078462512718e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5281307651520789</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.367427433947602</v>
+        <v>5.593366577830702e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.02869617595070103</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.593366577830702e-06</v>
+        <v>0.1386274756348784</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02869617595070103</v>
+        <v>0.02003824930144629</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1386274756348784</v>
+        <v>1.471054424078366</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02003824930144629</v>
+        <v>1.607305873754767</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.38248885304959</v>
+        <v>3.741954800007176</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.607305873754767</v>
+        <v>4.43087281023584e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.741954800007176</v>
+        <v>12416524.21839539</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.43087281023584e-14</v>
+        <v>8.198375821786157e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>12416524.21839539</v>
+        <v>6.831079875587322</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.198375821786157e-06</v>
+        <v>0.0001221069810274032</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.831079875587322</v>
+        <v>8.489687683090713</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001221069810274032</v>
+        <v>1.174170386189224</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.489687683090713</v>
+        <v>0.008800835864511778</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.174170386189224</v>
+        <v>3.02246330230803</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008800835864511778</v>
+        <v>0.9369918938343086</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.02246330230803</v>
+        <v>1.874475405620027</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9369918938343086</v>
+        <v>8</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.874475405620027</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2022365221746339</v>
       </c>
     </row>
@@ -2444,72 +2384,66 @@
         <v>2.729452016584571e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5991838146700281</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.266310248367851</v>
+        <v>5.601503933823088e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.03064455932928285</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.601503933823088e-06</v>
+        <v>0.138084921057219</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03064455932928285</v>
+        <v>0.02000305305197569</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.138084921057219</v>
+        <v>1.495775227397597</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02000305305197569</v>
+        <v>1.53960051105134</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.401570004711899</v>
+        <v>3.889808338200111</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.53960051105134</v>
+        <v>4.100435192431758e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.889808338200111</v>
+        <v>13118932.73423178</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.100435192431758e-14</v>
+        <v>7.858052314535662e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>13118932.73423178</v>
+        <v>7.057111233507553</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.858052314535662e-06</v>
+        <v>0.0001105852809742011</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.057111233507553</v>
+        <v>7.527314064026291</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001105852809742011</v>
+        <v>1.257645461051103</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.527314064026291</v>
+        <v>0.006265812559516139</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.257645461051103</v>
+        <v>3.237986796017555</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006265812559516139</v>
+        <v>0.9388939210434355</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.237986796017555</v>
+        <v>1.865667991685963</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9388939210434355</v>
+        <v>13</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.865667991685963</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2240993620469701</v>
       </c>
     </row>
@@ -2524,72 +2458,66 @@
         <v>2.678501539837654e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.6678880632198414</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.146191379326652</v>
+        <v>5.610127638208684e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.03310839191798159</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.610127638208684e-06</v>
+        <v>0.1384747184547248</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03310839191798159</v>
+        <v>0.02026984547355045</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1384747184547248</v>
+        <v>1.55166425307632</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02026984547355045</v>
+        <v>1.485663953475481</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.452284812321001</v>
+        <v>3.944082695843662</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.485663953475481</v>
+        <v>3.988359831466992e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.944082695843662</v>
+        <v>13038737.74850716</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.988359831466992e-14</v>
+        <v>8.170258156299082e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>13038737.74850716</v>
+        <v>6.780557985859618</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.170258156299082e-06</v>
+        <v>0.0001008924056816739</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.780557985859618</v>
+        <v>6.280260188991491</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001008924056816739</v>
+        <v>1.697412455121161</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.280260188991491</v>
+        <v>0.003979364772798014</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.697412455121161</v>
+        <v>3.486431428460184</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003979364772798014</v>
+        <v>0.9456714896321712</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.486431428460184</v>
+        <v>1.857121380304452</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9456714896321712</v>
+        <v>13</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.857121380304452</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2386346869415762</v>
       </c>
     </row>
@@ -2604,72 +2532,66 @@
         <v>2.611334040531117e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.7313822176988574</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.019017749839781</v>
+        <v>5.619217326596957e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.03553842398943855</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.619217326596957e-06</v>
+        <v>0.1408811274524223</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03553842398943855</v>
+        <v>0.02111033428238202</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1408811274524223</v>
+        <v>1.571128949476686</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02111033428238202</v>
+        <v>1.480577030110632</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.47389309503477</v>
+        <v>4.372962833114145</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.480577030110632</v>
+        <v>2.447741271819686e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.372962833114145</v>
+        <v>20997250.49994761</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.447741271819686e-14</v>
+        <v>5.10708748360497e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>20997250.49994761</v>
+        <v>10.7917125665708</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.10708748360497e-06</v>
+        <v>9.731798290384305e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>10.7917125665708</v>
+        <v>5.757306525599144</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>9.731798290384305e-05</v>
+        <v>1.725763099421568</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>5.757306525599144</v>
+        <v>0.003225758152943068</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.725763099421568</v>
+        <v>3.547067403010125</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.003225758152943068</v>
+        <v>0.9458822789048197</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.547067403010125</v>
+        <v>1.832065697881513</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9458822789048197</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.832065697881513</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2416892536684092</v>
       </c>
     </row>
@@ -2684,72 +2606,66 @@
         <v>2.533167103553287e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.7908955560821929</v>
+        <v>8.598885067595408e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8894679080279655</v>
+        <v>5.628662406213608e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.598885067595408e-07</v>
+        <v>0.03784041501950712</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.628662406213608e-06</v>
+        <v>0.1448740536027482</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03784041501950712</v>
+        <v>0.02242049798819578</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1448740536027482</v>
+        <v>1.577836138370923</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02242049798819578</v>
+        <v>1.75277782782602</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.482174157018034</v>
+        <v>3.974368311517876</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.75277782782602</v>
+        <v>2.028137365664836e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.974368311517876</v>
+        <v>25278480.05240588</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.028137365664836e-14</v>
+        <v>4.234562059590805e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>25278480.05240588</v>
+        <v>12.95982927898304</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.234562059590805e-06</v>
+        <v>9.908255690637591e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>12.95982927898304</v>
+        <v>6.946309872802973</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>9.908255690637591e-05</v>
+        <v>1.469254606565038</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.946309872802973</v>
+        <v>0.004780854335573161</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.469254606565038</v>
+        <v>3.43085584394136</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.004780854335573161</v>
+        <v>0.9453757942676831</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.43085584394136</v>
+        <v>1.823382601858392</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9453757942676831</v>
+        <v>14</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.823382601858392</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2377874037807674</v>
       </c>
     </row>
@@ -2764,72 +2680,66 @@
         <v>2.446735216049135e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.8466333670784137</v>
+        <v>8.596455594319038e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7596382308929277</v>
+        <v>5.63829184671088e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.596455594319038e-07</v>
+        <v>0.03930079746666935</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.63829184671088e-06</v>
+        <v>0.1499541594289194</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03930079746666935</v>
+        <v>0.02403097467562014</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1499541594289194</v>
+        <v>1.570304798388081</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02403097467562014</v>
+        <v>1.576563402828832</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.477338341570853</v>
+        <v>3.890328513017814</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.576563402828832</v>
+        <v>2.116708417474548e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.890328513017814</v>
+        <v>24080663.25963649</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.116708417474548e-14</v>
+        <v>4.42788782052876e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>24080663.25963649</v>
+        <v>12.27433369790108</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.42788782052876e-06</v>
+        <v>0.0001070124124577094</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>12.27433369790108</v>
+        <v>7.992244556353234</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001070124124577094</v>
+        <v>1.245522915959906</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.992244556353234</v>
+        <v>0.00683552197400981</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.245522915959906</v>
+        <v>3.155407995439203</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.00683552197400981</v>
+        <v>0.9436211091435625</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.155407995439203</v>
+        <v>1.877030836173148</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9436211091435625</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.877030836173148</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2392955129614019</v>
       </c>
     </row>
@@ -2844,72 +2754,66 @@
         <v>2.354450460315655e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.8983433023885863</v>
+        <v>8.472949490513113e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6290288011337335</v>
+        <v>5.647821841345215e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.472949490513113e-07</v>
+        <v>0.04001285743535721</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.647821841345215e-06</v>
+        <v>0.155879395485861</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04001285743535721</v>
+        <v>0.02589883479455374</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.155879395485861</v>
+        <v>1.562142271558437</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02589883479455374</v>
+        <v>1.626246262729522</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.468927106275391</v>
+        <v>3.935426331673165</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.626246262729522</v>
+        <v>2.068473755733208e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.935426331673165</v>
+        <v>25484810.56355685</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.068473755733208e-14</v>
+        <v>4.200533056873989e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>25484810.56355685</v>
+        <v>13.43423170418674</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.200533056873989e-06</v>
+        <v>0.0001114039449632874</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>13.43423170418674</v>
+        <v>7.685966414154112</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001114039449632874</v>
+        <v>1.275552862919556</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.685966414154112</v>
+        <v>0.006581085525828592</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.275552862919556</v>
+        <v>3.183481945382511</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006581085525828592</v>
+        <v>0.9423232771264689</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.183481945382511</v>
+        <v>1.862238106013459</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9423232771264689</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.862238106013459</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2315119564968875</v>
       </c>
     </row>
@@ -2924,72 +2828,66 @@
         <v>2.264342369752126e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.955053823408479</v>
+        <v>8.071317202954249e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.4728970466990137</v>
+        <v>5.657090251113091e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.071317202954249e-07</v>
+        <v>0.04008797352348926</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.657090251113091e-06</v>
+        <v>0.161171181471736</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04008797352348926</v>
+        <v>0.02757889327357627</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.161171181471736</v>
+        <v>1.521406908817914</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02757889327357627</v>
+        <v>1.630629445553267</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.434607884085949</v>
+        <v>3.931261282966839</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.630629445553267</v>
+        <v>2.261444763725657e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.931261282966839</v>
+        <v>24425744.33712914</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.261444763725657e-14</v>
+        <v>4.248987836519432e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>24425744.33712914</v>
+        <v>13.49216359895614</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.248987836519432e-06</v>
+        <v>0.000107604219558718</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>13.49216359895614</v>
+        <v>7.106934600793465</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000107604219558718</v>
+        <v>1.397611120451905</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.106934600793465</v>
+        <v>0.005434929813250647</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.397611120451905</v>
+        <v>3.311080883214327</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005434929813250647</v>
+        <v>0.9403558326212442</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.311080883214327</v>
+        <v>1.82214809827233</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9403558326212442</v>
+        <v>15</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.82214809827233</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2379017769301571</v>
       </c>
     </row>
@@ -3004,72 +2902,66 @@
         <v>2.185773980834342e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.0279556314734</v>
+        <v>7.588021063509758e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.25686602264711</v>
+        <v>5.665844334858225e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.588021063509758e-07</v>
+        <v>0.03853648973989079</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>5.665844334858225e-06</v>
+        <v>0.1652006921696252</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03853648973989079</v>
+        <v>0.02877466700438027</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1652006921696252</v>
+        <v>1.539342614688195</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02877466700438027</v>
+        <v>1.731017080365825</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.446252171692705</v>
+        <v>3.645799269201489</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.731017080365825</v>
+        <v>2.629446239645085e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.645799269201489</v>
+        <v>21628498.65266202</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.629446239645085e-14</v>
+        <v>4.863495901657216e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>21628498.65266202</v>
+        <v>12.30033794297918</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.863495901657216e-06</v>
+        <v>9.896704667090681e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>12.30033794297918</v>
+        <v>6.112128670112076</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.896704667090681e-05</v>
+        <v>1.414521036297731</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.112128670112076</v>
+        <v>0.003697222496800746</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.414521036297731</v>
+        <v>3.466909836343217</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.003697222496800746</v>
+        <v>0.9401717658450086</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.466909836343217</v>
+        <v>1.869129363191959</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9401717658450086</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.869129363191959</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2407417671634645</v>
       </c>
     </row>
@@ -3446,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.256036373994594</v>
+        <v>1.261946468529155</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.700421529494614</v>
@@ -3535,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.241096214026938</v>
+        <v>1.246095614916962</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.712596301304193</v>
@@ -3624,7 +3516,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.252307766269829</v>
+        <v>1.258822935837574</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.712141553775619</v>
@@ -3713,7 +3605,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.349019564390836</v>
+        <v>1.354523008525371</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.110810231433131</v>
@@ -3802,7 +3694,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.361508420740859</v>
+        <v>1.364424987002764</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.556763368548525</v>
@@ -3891,7 +3783,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.348045765869847</v>
+        <v>1.353146302494999</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.48485035832774</v>
@@ -3980,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.362374904844807</v>
+        <v>1.363194050994645</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.440861118603846</v>
@@ -4069,7 +3961,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.354716637570182</v>
+        <v>1.353018931194853</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.200469618336473</v>
@@ -4158,7 +4050,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.338934290796629</v>
+        <v>1.337484252041255</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.126619927317387</v>
@@ -4247,7 +4139,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.328107627460497</v>
+        <v>1.329952173272578</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.215090604584606</v>
@@ -4336,7 +4228,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.326548019162275</v>
+        <v>1.32952708366518</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.074147790853263</v>
@@ -4425,7 +4317,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.324037016846338</v>
+        <v>1.331036503607002</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.283791322964885</v>
@@ -4514,7 +4406,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.325714247771355</v>
+        <v>1.326002440716695</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.265581777989509</v>
@@ -4603,7 +4495,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.322904496272127</v>
+        <v>1.325575796356445</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.201478307592386</v>
@@ -4692,7 +4584,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.295183113021995</v>
+        <v>1.300601719747828</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.031634158627864</v>
@@ -4781,7 +4673,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.296100107449423</v>
+        <v>1.303253458053193</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.232305348508601</v>
@@ -4870,7 +4762,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.314598713376615</v>
+        <v>1.320701594211185</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.141157584651833</v>
@@ -4959,7 +4851,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.319354597292138</v>
+        <v>1.323174280803558</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.197972705764453</v>
@@ -5048,7 +4940,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.3270876747963</v>
+        <v>1.332017925387801</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.180735090158379</v>
@@ -5137,7 +5029,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.327524737179129</v>
+        <v>1.336723161150758</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.199570684165292</v>
@@ -5226,7 +5118,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.341653338996251</v>
+        <v>1.348056755207387</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.170649162598723</v>
@@ -5315,7 +5207,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.341413264394293</v>
+        <v>1.347839178140989</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.116649088569961</v>
@@ -5404,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.379566942022151</v>
+        <v>1.384431570974921</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.05188258161311</v>
@@ -5493,7 +5385,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.407570055935305</v>
+        <v>1.400822253750823</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.940498753507538</v>
@@ -5582,7 +5474,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.420286140717189</v>
+        <v>1.414213551071549</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.100879691975574</v>
@@ -5671,7 +5563,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.451546971288365</v>
+        <v>1.438194489279949</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.929091545797651</v>
@@ -5760,7 +5652,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471523446314021</v>
+        <v>1.447324952860828</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.04934586317625</v>
@@ -5849,7 +5741,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.454852877752314</v>
+        <v>1.439533457827215</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.964785913349869</v>
@@ -5938,7 +5830,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.434467431756359</v>
+        <v>1.42425471187973</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.17021895566829</v>
@@ -6027,7 +5919,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.504059584620914</v>
+        <v>1.487965598078917</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.347198714993564</v>
@@ -6116,7 +6008,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.525489976972074</v>
+        <v>1.50055643265138</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.572380475555778</v>
@@ -6205,7 +6097,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478980500826738</v>
+        <v>1.460525931384298</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.471654044614259</v>
@@ -6294,7 +6186,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.482268864830618</v>
+        <v>1.46124804044238</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.457711173131905</v>
@@ -6383,7 +6275,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.427554165985863</v>
+        <v>1.413033574805757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.43660756259013</v>
@@ -6472,7 +6364,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.422599282990819</v>
+        <v>1.404611294862887</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.418205863091663</v>
@@ -6561,7 +6453,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.41153319562573</v>
+        <v>1.391660923570199</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.395132379355319</v>
@@ -6650,7 +6542,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.417633798040741</v>
+        <v>1.396745636759471</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.324398700895925</v>
@@ -6739,7 +6631,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.405486422284115</v>
+        <v>1.38791563844432</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.420719013579117</v>
@@ -6828,7 +6720,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.411771248381597</v>
+        <v>1.392002678407469</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.318936805436153</v>
@@ -6917,7 +6809,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.37801494486598</v>
+        <v>1.362190899379856</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.345288640996402</v>
@@ -7006,7 +6898,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.362537093569049</v>
+        <v>1.351765600948183</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.435441174842275</v>
@@ -7095,7 +6987,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.350936102675915</v>
+        <v>1.343294385413427</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.36793250142674</v>
@@ -7184,7 +7076,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.367609236426875</v>
+        <v>1.354937148147731</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.354600460811667</v>
@@ -7273,7 +7165,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.38780754244094</v>
+        <v>1.365798691615222</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.231973527010557</v>
@@ -7362,7 +7254,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.377346948740892</v>
+        <v>1.355328422362939</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.368816840218145</v>
@@ -7451,7 +7343,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.394307991743059</v>
+        <v>1.36910782259368</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.021094261832549</v>
@@ -7540,7 +7432,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.41442674870676</v>
+        <v>1.387895664063001</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.307807557236139</v>
@@ -7629,7 +7521,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.408832606956984</v>
+        <v>1.383236080049068</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.262784897302595</v>
@@ -7718,7 +7610,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.462535585897872</v>
+        <v>1.425817616911892</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.38101252864839</v>
@@ -7807,7 +7699,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.455282905425406</v>
+        <v>1.422126843825511</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.365994254705281</v>
@@ -7896,7 +7788,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463169846811182</v>
+        <v>1.428983122810223</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.289499975643653</v>
@@ -7985,7 +7877,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.43083806453162</v>
+        <v>1.404892819334196</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.356093962231659</v>
@@ -8074,7 +7966,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.440844256352522</v>
+        <v>1.411081715401893</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.404769962567271</v>
@@ -8163,7 +8055,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.448079906794435</v>
+        <v>1.414832540299506</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.410117510992094</v>
@@ -8252,7 +8144,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.512522948621874</v>
+        <v>1.466887943839543</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.652748135109073</v>
@@ -8341,7 +8233,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.525240458776316</v>
+        <v>1.47206263225392</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.417234640543898</v>
@@ -8430,7 +8322,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.49402323063034</v>
+        <v>1.443341354493268</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.264003286115853</v>
@@ -8519,7 +8411,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.465923504274164</v>
+        <v>1.427219965382284</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.277793169923205</v>
@@ -8608,7 +8500,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.441073441572637</v>
+        <v>1.409703092414537</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.297951672185007</v>
@@ -8697,7 +8589,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.455741134554745</v>
+        <v>1.420005144435742</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.244262964623774</v>
@@ -8786,7 +8678,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.436299417352728</v>
+        <v>1.403360536126238</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.283714463796682</v>
@@ -9072,7 +8964,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.732891223355407</v>
+        <v>1.682110946336088</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.845870024675727</v>
@@ -9161,7 +9053,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.739173161773607</v>
+        <v>1.6778418576741</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.033155234944514</v>
@@ -9250,7 +9142,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.746680218652988</v>
+        <v>1.690277852778137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.877535377240627</v>
@@ -9339,7 +9231,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.768179831388888</v>
+        <v>1.699818573476119</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.524505712308661</v>
@@ -9428,7 +9320,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.757561746432386</v>
+        <v>1.683016917153607</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.142377396760665</v>
@@ -9517,7 +9409,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.764743193844031</v>
+        <v>1.685285726153056</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.227188982768038</v>
@@ -9606,7 +9498,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.786250173937429</v>
+        <v>1.706632630676488</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.9783461763853</v>
@@ -9695,7 +9587,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.78446454416868</v>
+        <v>1.71447639832348</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.191611838573598</v>
@@ -9784,7 +9676,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.794128589480787</v>
+        <v>1.722937414412439</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.755081764022542</v>
@@ -9873,7 +9765,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.794895520526519</v>
+        <v>1.72567017726281</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.410080904249697</v>
@@ -9962,7 +9854,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.782203162339684</v>
+        <v>1.718500671502591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.343253690227624</v>
@@ -10051,7 +9943,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.785711660238626</v>
+        <v>1.729009721527665</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.443200284693286</v>
@@ -10140,7 +10032,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.788074482041271</v>
+        <v>1.732130544571873</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.517719054263004</v>
@@ -10229,7 +10121,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.771351444438815</v>
+        <v>1.714484727880799</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.599879326799289</v>
@@ -10318,7 +10210,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.75411769892032</v>
+        <v>1.709523878361122</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.212350554164261</v>
@@ -10407,7 +10299,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.75507960720625</v>
+        <v>1.707948957803268</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.081495778678919</v>
@@ -10496,7 +10388,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.748289294308701</v>
+        <v>1.705232996646316</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.299866414637788</v>
@@ -10585,7 +10477,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.744410354869562</v>
+        <v>1.69751598982597</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.289046212942189</v>
@@ -10674,7 +10566,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.739315778824096</v>
+        <v>1.693993952152872</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.241404893872521</v>
@@ -10763,7 +10655,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742346708667346</v>
+        <v>1.697043420987827</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.29001745433122</v>
@@ -10852,7 +10744,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.74129741387913</v>
+        <v>1.697178335556921</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.110786799144068</v>
@@ -10941,7 +10833,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.736189438605245</v>
+        <v>1.692446134638107</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.831023064469729</v>
@@ -11030,7 +10922,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.733922756686515</v>
+        <v>1.683137729550569</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.178903429644215</v>
@@ -11119,7 +11011,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.735664861237564</v>
+        <v>1.682091716227951</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.657493022768784</v>
@@ -11208,7 +11100,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.736174886992341</v>
+        <v>1.67630693270539</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.090559476930544</v>
@@ -11297,7 +11189,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.737935274994476</v>
+        <v>1.671407269413298</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.820446888143425</v>
@@ -11386,7 +11278,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723883856836177</v>
+        <v>1.644685594762802</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.89613542993257</v>
@@ -11475,7 +11367,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.664212099938755</v>
+        <v>1.601165921344543</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.011261522660688</v>
@@ -11564,7 +11456,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646167552888802</v>
+        <v>1.595234785177785</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.740478849735368</v>
@@ -11653,7 +11545,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653169977658397</v>
+        <v>1.591753294783312</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.789087951757526</v>
@@ -11742,7 +11634,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.652871426053416</v>
+        <v>1.5942022052624</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.629205864419648</v>
@@ -11831,7 +11723,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64199545178328</v>
+        <v>1.582847889279671</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.829050837805626</v>
@@ -11920,7 +11812,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644526589228927</v>
+        <v>1.589139500074928</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.714485132897527</v>
@@ -12009,7 +11901,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640201918946424</v>
+        <v>1.582549777750489</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.788452472937646</v>
@@ -12098,7 +11990,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633425586582903</v>
+        <v>1.580817698873261</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.823367089830059</v>
@@ -12187,7 +12079,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637017388398685</v>
+        <v>1.580904089454403</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.783038291193845</v>
@@ -12276,7 +12168,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.623545077508195</v>
+        <v>1.562109749563912</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.863614096539493</v>
@@ -12365,7 +12257,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623872761344353</v>
+        <v>1.564094848796361</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.713540192423991</v>
@@ -12454,7 +12346,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616939088213376</v>
+        <v>1.55347113700026</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.743955968359475</v>
@@ -12543,7 +12435,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612208446264394</v>
+        <v>1.5553650272124</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.730719243761279</v>
@@ -12632,7 +12524,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.617467034973783</v>
+        <v>1.559655122303759</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.630876901621124</v>
@@ -12721,7 +12613,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.62702246577022</v>
+        <v>1.571230681507368</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.399155423782119</v>
@@ -12810,7 +12702,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.662475823135755</v>
+        <v>1.595893023225781</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.871710711255207</v>
@@ -12899,7 +12791,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.701000390053471</v>
+        <v>1.620199801857537</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.934322349735273</v>
@@ -12988,7 +12880,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.709467010274828</v>
+        <v>1.623549573881817</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.023902485857636</v>
@@ -13077,7 +12969,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.72161545148441</v>
+        <v>1.628771522301556</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.838903990116811</v>
@@ -13166,7 +13058,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.730750249603864</v>
+        <v>1.639109996987171</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.221156684083761</v>
@@ -13255,7 +13147,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.729503580103804</v>
+        <v>1.642452079103387</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.237116734158655</v>
@@ -13344,7 +13236,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.740923645226116</v>
+        <v>1.650739540429429</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.960007462116925</v>
@@ -13433,7 +13325,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.740468201504963</v>
+        <v>1.65614235558613</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.320035636864498</v>
@@ -13522,7 +13414,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.735901788230096</v>
+        <v>1.651293525371383</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.223558350025899</v>
@@ -13611,7 +13503,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.758335657223626</v>
+        <v>1.689822343174161</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.141711588246125</v>
@@ -13700,7 +13592,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.760793215931009</v>
+        <v>1.693835920747855</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.233580840208502</v>
@@ -13789,7 +13681,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.765939071666257</v>
+        <v>1.696361990556841</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.033265042600004</v>
@@ -13878,7 +13770,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.769706087092991</v>
+        <v>1.699230264566411</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.066203723330309</v>
@@ -13967,7 +13859,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.762694473743073</v>
+        <v>1.696684275785085</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.00601306106494</v>
@@ -14056,7 +13948,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.759543826747748</v>
+        <v>1.690312052009641</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.029780890668733</v>
@@ -14145,7 +14037,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.69590631264073</v>
+        <v>1.65124199100795</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.56093801142335</v>
@@ -14234,7 +14126,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.682812272455189</v>
+        <v>1.626909374737164</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.665163434317709</v>
@@ -14323,7 +14215,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.6754424483247</v>
+        <v>1.620373673170389</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.557978289954981</v>
@@ -14412,7 +14304,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.672919185743121</v>
+        <v>1.619337420269416</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.487604969171397</v>
@@ -14698,7 +14590,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.690385576767559</v>
+        <v>1.618006486252133</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.341009832599017</v>
@@ -14787,7 +14679,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.691179840679837</v>
+        <v>1.613510102514378</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.305341509668791</v>
@@ -14876,7 +14768,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.69855551342724</v>
+        <v>1.629755856559527</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.449491430826593</v>
@@ -14965,7 +14857,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.763477342920925</v>
+        <v>1.667202923613118</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.287637924369123</v>
@@ -15054,7 +14946,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.763448905342027</v>
+        <v>1.667873590233233</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.365231348083528</v>
@@ -15143,7 +15035,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.756532628313245</v>
+        <v>1.666849122165224</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.532497646735302</v>
@@ -15232,7 +15124,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.758111506994211</v>
+        <v>1.668144600977027</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.380565024869758</v>
@@ -15321,7 +15213,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.764825743169224</v>
+        <v>1.678062087992009</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.087106567759927</v>
@@ -15410,7 +15302,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.770665169014243</v>
+        <v>1.687573566706857</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.838643595826534</v>
@@ -15499,7 +15391,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.773724687430804</v>
+        <v>1.696413778419199</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.495692371921412</v>
@@ -15588,7 +15480,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.774741401571657</v>
+        <v>1.695485351001741</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.532767109453765</v>
@@ -15677,7 +15569,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.792638493701671</v>
+        <v>1.713862786264057</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.26791607336903</v>
@@ -15766,7 +15658,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.773895029328633</v>
+        <v>1.700932085990553</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.210136756638947</v>
@@ -15855,7 +15747,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.757264180393361</v>
+        <v>1.70627648455309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.100758243328023</v>
@@ -15944,7 +15836,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.735629015829623</v>
+        <v>1.694445567453142</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.182632195338517</v>
@@ -16033,7 +15925,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.717913267307058</v>
+        <v>1.676324639833387</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.029806433250972</v>
@@ -16122,7 +16014,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.717443007064489</v>
+        <v>1.680546242237318</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.200427952869799</v>
@@ -16211,7 +16103,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.716534391288892</v>
+        <v>1.675054958200988</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.246273609239909</v>
@@ -16300,7 +16192,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.717006503472622</v>
+        <v>1.676963640925043</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.11608649313116</v>
@@ -16389,7 +16281,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.716437435010853</v>
+        <v>1.677953555203553</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.233265414631902</v>
@@ -16478,7 +16370,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.718872062946075</v>
+        <v>1.674374554073351</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.231391127078887</v>
@@ -16567,7 +16459,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.71883995043067</v>
+        <v>1.675191558663405</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.191777234727995</v>
@@ -16656,7 +16548,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.718017862522602</v>
+        <v>1.673527555539812</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.015071694333528</v>
@@ -16745,7 +16637,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.719606256520827</v>
+        <v>1.670126900350566</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.686759895614363</v>
@@ -16834,7 +16726,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.715305170398135</v>
+        <v>1.663038198782773</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.082072700225456</v>
@@ -16923,7 +16815,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.701617723925397</v>
+        <v>1.646905263500406</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.753881892585095</v>
@@ -17012,7 +16904,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.692300570717516</v>
+        <v>1.632859533471338</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.809589643677565</v>
@@ -17101,7 +16993,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703001961504113</v>
+        <v>1.63603049518895</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.519206626108376</v>
@@ -17190,7 +17082,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.720969604058162</v>
+        <v>1.64317014677983</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.134228183298911</v>
@@ -17279,7 +17171,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.749584229058414</v>
+        <v>1.656945162076383</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.946940626970223</v>
@@ -17368,7 +17260,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.766555365769007</v>
+        <v>1.670839490594943</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.074276426114016</v>
@@ -17457,7 +17349,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.774875682423035</v>
+        <v>1.677388489408779</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.141568131390826</v>
@@ -17546,7 +17438,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.785281383442928</v>
+        <v>1.691093465805307</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.277580475682089</v>
@@ -17635,7 +17527,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.776932994780668</v>
+        <v>1.685494907574286</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.236695889438312</v>
@@ -17724,7 +17616,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.773701246840527</v>
+        <v>1.678878384300713</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.404146282250052</v>
@@ -17813,7 +17705,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.779739868706118</v>
+        <v>1.683680128569738</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.077360481011689</v>
@@ -17902,7 +17794,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.777137614736896</v>
+        <v>1.681512226185867</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.092169163153466</v>
@@ -17991,7 +17883,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.765698588591118</v>
+        <v>1.671059235690988</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.327611762821796</v>
@@ -18080,7 +17972,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758031813259905</v>
+        <v>1.663940938984653</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.463293609928198</v>
@@ -18169,7 +18061,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.754241906185193</v>
+        <v>1.661459915421452</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.448195735608473</v>
@@ -18258,7 +18150,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.747351637136527</v>
+        <v>1.655833604595029</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.313240084929348</v>
@@ -18347,7 +18239,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.749301412476232</v>
+        <v>1.655310246113003</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.962488127400367</v>
@@ -18436,7 +18328,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.758110651376376</v>
+        <v>1.66410667746987</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.347055292695202</v>
@@ -18525,7 +18417,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.760442475665877</v>
+        <v>1.663968100299235</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.637186661591822</v>
@@ -18614,7 +18506,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.752609889964604</v>
+        <v>1.659883877798372</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.591498816887654</v>
@@ -18703,7 +18595,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.753350599715628</v>
+        <v>1.658674908509441</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.385644125803172</v>
@@ -18792,7 +18684,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.737513181865534</v>
+        <v>1.641928145464226</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.737289962347169</v>
@@ -18881,7 +18773,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.733601477718188</v>
+        <v>1.639249477954489</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.095988010907423</v>
@@ -18970,7 +18862,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.72753176002946</v>
+        <v>1.629666368963476</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.581123701650261</v>
@@ -19059,7 +18951,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.731174018207944</v>
+        <v>1.640459836570236</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.641013993233535</v>
@@ -19148,7 +19040,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.723723546994656</v>
+        <v>1.635323960858503</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.495331448542294</v>
@@ -19237,7 +19129,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.728269483039334</v>
+        <v>1.646755723209975</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.692612132040866</v>
@@ -19326,7 +19218,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.737601793149439</v>
+        <v>1.651538452363053</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.824951819389455</v>
@@ -19415,7 +19307,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.743393214033073</v>
+        <v>1.648891375564974</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.650062158536177</v>
@@ -19504,7 +19396,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.74904154295883</v>
+        <v>1.650445777157833</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.512408927223274</v>
@@ -19593,7 +19485,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.755542940173365</v>
+        <v>1.641216782563357</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.875153601567057</v>
@@ -19682,7 +19574,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.744895085566565</v>
+        <v>1.636118874070687</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.776722526180149</v>
@@ -19771,7 +19663,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.690143744221842</v>
+        <v>1.603425795050466</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.491498917196342</v>
@@ -19860,7 +19752,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.68539867558456</v>
+        <v>1.606507498970231</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.533840489550347</v>
@@ -19949,7 +19841,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.686997501306807</v>
+        <v>1.605305947751289</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.498584474978943</v>
@@ -20038,7 +19930,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.686698427732727</v>
+        <v>1.602438367783278</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.438605490446606</v>
@@ -20324,7 +20216,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.571773716274752</v>
+        <v>1.458932473739552</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.370550950993402</v>
@@ -20413,7 +20305,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.570429734911325</v>
+        <v>1.461862068136289</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.195044470211104</v>
@@ -20502,7 +20394,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56588718367988</v>
+        <v>1.473683210906503</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.326945300833231</v>
@@ -20591,7 +20483,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.620259545167414</v>
+        <v>1.510115704842479</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.328648130249342</v>
@@ -20680,7 +20572,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.624102364727094</v>
+        <v>1.514610428713639</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.402062018237937</v>
@@ -20769,7 +20661,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615617315263643</v>
+        <v>1.508328782807163</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.216803119518091</v>
@@ -20858,7 +20750,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.633598903704432</v>
+        <v>1.520408195058621</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.211039725675465</v>
@@ -20947,7 +20839,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634051446309424</v>
+        <v>1.529692056420009</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.165746993681324</v>
@@ -21036,7 +20928,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.63266026145971</v>
+        <v>1.529528527740352</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.387408994045365</v>
@@ -21125,7 +21017,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638499170762069</v>
+        <v>1.536835766322436</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.016768810852513</v>
@@ -21214,7 +21106,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.637708855915513</v>
+        <v>1.535485769217141</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.994785350681857</v>
@@ -21303,7 +21195,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.646673678951194</v>
+        <v>1.540652364669369</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.045164258813825</v>
@@ -21392,7 +21284,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.623519262110791</v>
+        <v>1.524223659530489</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.196639586996726</v>
@@ -21481,7 +21373,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611697205482363</v>
+        <v>1.512611177605345</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.139165392246194</v>
@@ -21570,7 +21462,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585324476349023</v>
+        <v>1.495626644397715</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.923614770931036</v>
@@ -21659,7 +21551,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.585809499822204</v>
+        <v>1.489379309823055</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.025731260001187</v>
@@ -21748,7 +21640,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.594787221955692</v>
+        <v>1.490964397084865</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.863948301817864</v>
@@ -21837,7 +21729,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598113091840545</v>
+        <v>1.490488543915163</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.966386695970451</v>
@@ -21926,7 +21818,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597577968205715</v>
+        <v>1.493326493980231</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.112846335225051</v>
@@ -22015,7 +21907,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.594678053530953</v>
+        <v>1.490610310857856</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.064358107442294</v>
@@ -22104,7 +21996,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.598735371143631</v>
+        <v>1.49174859154941</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.111645128647537</v>
@@ -22193,7 +22085,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600210975206648</v>
+        <v>1.489922055031017</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.770137628901455</v>
@@ -22282,7 +22174,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.61643273471037</v>
+        <v>1.492420885058986</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.187432820542976</v>
@@ -22371,7 +22263,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.621782637748553</v>
+        <v>1.495612047831692</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.711804370779816</v>
@@ -22460,7 +22352,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.63096807935541</v>
+        <v>1.499670871336419</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.114861097748144</v>
@@ -22549,7 +22441,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.632614600255197</v>
+        <v>1.499054868788041</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.723622281722668</v>
@@ -22638,7 +22530,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.625221764521298</v>
+        <v>1.486626146609313</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.025301881428094</v>
@@ -22727,7 +22619,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.634846027915398</v>
+        <v>1.476731954605952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.630224564417266</v>
@@ -22816,7 +22708,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641336038249174</v>
+        <v>1.487955475979496</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.759401528193253</v>
@@ -22905,7 +22797,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655392616221182</v>
+        <v>1.496969578745557</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.672786386158976</v>
@@ -22994,7 +22886,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651874705108853</v>
+        <v>1.503299850556582</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.67072683221188</v>
@@ -23083,7 +22975,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.647233390996431</v>
+        <v>1.504595338994748</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.822182666158576</v>
@@ -23172,7 +23064,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.646983202487893</v>
+        <v>1.502155015856911</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.022176820082898</v>
@@ -23261,7 +23153,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.63405106625281</v>
+        <v>1.483263144771633</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.845619852793662</v>
@@ -23350,7 +23242,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633065168893293</v>
+        <v>1.473405194585963</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.725714548275464</v>
@@ -23439,7 +23331,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627871144025628</v>
+        <v>1.461791003565524</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.89623295112158</v>
@@ -23528,7 +23420,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.62092415697234</v>
+        <v>1.459552435960864</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.693209278266174</v>
@@ -23617,7 +23509,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.613979371109984</v>
+        <v>1.453025717874342</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.956810127224972</v>
@@ -23706,7 +23598,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.609624379888485</v>
+        <v>1.452790479444265</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.825665981691656</v>
@@ -23795,7 +23687,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608575703723559</v>
+        <v>1.454909638760365</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.736970812000432</v>
@@ -23884,7 +23776,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.608063229332434</v>
+        <v>1.455399528324931</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.714805373882101</v>
@@ -23973,7 +23865,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610712473182125</v>
+        <v>1.462184387554636</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.618905962858072</v>
@@ -24062,7 +23954,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623068650384155</v>
+        <v>1.475089239337513</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.681705984157914</v>
@@ -24151,7 +24043,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.63096718343292</v>
+        <v>1.469012341019711</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.560695393286034</v>
@@ -24240,7 +24132,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.633820731662744</v>
+        <v>1.475544553006046</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.30459661497965</v>
@@ -24329,7 +24221,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639492701804124</v>
+        <v>1.473624573835196</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.207697208596376</v>
@@ -24418,7 +24310,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647278083748372</v>
+        <v>1.477441515770544</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.101623763921758</v>
@@ -24507,7 +24399,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.649390545171282</v>
+        <v>1.48287680337465</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.05963885477447</v>
@@ -24596,7 +24488,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.661347701295913</v>
+        <v>1.48242602394335</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.295085349766537</v>
@@ -24685,7 +24577,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.66019085611491</v>
+        <v>1.493883504107377</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.252202050616897</v>
@@ -24774,7 +24666,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.663790457044353</v>
+        <v>1.500628912482792</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.175109831110515</v>
@@ -24863,7 +24755,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.677919434752778</v>
+        <v>1.516814659330955</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.209609337021151</v>
@@ -24952,7 +24844,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675530446313952</v>
+        <v>1.515055308556761</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.348066387500426</v>
@@ -25041,7 +24933,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.679542056411211</v>
+        <v>1.509750103365476</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.296451189844976</v>
@@ -25130,7 +25022,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.684303977511176</v>
+        <v>1.508136077243495</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.930344269369786</v>
@@ -25219,7 +25111,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.683611709857383</v>
+        <v>1.496103789910609</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.080902588460131</v>
@@ -25308,7 +25200,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.670551140431409</v>
+        <v>1.488678010704357</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.200736209796927</v>
@@ -25397,7 +25289,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.629907000626931</v>
+        <v>1.473772756727024</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.371819405830438</v>
@@ -25486,7 +25378,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621842001748799</v>
+        <v>1.468706142238021</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.419325196297883</v>
@@ -25575,7 +25467,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.628004917007187</v>
+        <v>1.467880035834347</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.349925921494451</v>
@@ -25664,7 +25556,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.626599424207224</v>
+        <v>1.469085318809374</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.391720742439899</v>
@@ -25950,7 +25842,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601760178898834</v>
+        <v>1.540796280925692</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.60384250892647</v>
@@ -26039,7 +25931,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.603575564485832</v>
+        <v>1.54256562871428</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.653234181153963</v>
@@ -26128,7 +26020,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.627047096533467</v>
+        <v>1.559313486414916</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.4079714529936</v>
@@ -26217,7 +26109,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.675819376702147</v>
+        <v>1.592543986802903</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.28974354410926</v>
@@ -26306,7 +26198,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.676597853193799</v>
+        <v>1.599131011260791</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.497200098113921</v>
@@ -26395,7 +26287,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.675288642103905</v>
+        <v>1.591472529466532</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.261002491605098</v>
@@ -26484,7 +26376,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.677258115159617</v>
+        <v>1.598075995806933</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.264257385276121</v>
@@ -26573,7 +26465,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.656031897008808</v>
+        <v>1.587140489384633</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.824188213479998</v>
@@ -26662,7 +26554,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.63543959098368</v>
+        <v>1.575260794998296</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.92684567585564</v>
@@ -26751,7 +26643,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.621553827246371</v>
+        <v>1.568479331876297</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.065804728387032</v>
@@ -26840,7 +26732,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.611763683272225</v>
+        <v>1.56866325513426</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.710234863054687</v>
@@ -26929,7 +26821,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.611089976445797</v>
+        <v>1.565869353229007</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.922993678086112</v>
@@ -27018,7 +26910,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605031049522772</v>
+        <v>1.561270185695244</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.918454866311909</v>
@@ -27107,7 +26999,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.578612876702579</v>
+        <v>1.535817910824025</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.843999799136999</v>
@@ -27196,7 +27088,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571113850029009</v>
+        <v>1.526545104376567</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.81698149720268</v>
@@ -27285,7 +27177,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574670501019659</v>
+        <v>1.529023190856645</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.824883097090317</v>
@@ -27374,7 +27266,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.570344582741792</v>
+        <v>1.524350574676871</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.999819946132191</v>
@@ -27463,7 +27355,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566400474089048</v>
+        <v>1.52171677045672</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.961313791739177</v>
@@ -27552,7 +27444,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575695937805209</v>
+        <v>1.521871077614144</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.797076348509847</v>
@@ -27641,7 +27533,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571722233898191</v>
+        <v>1.519086432902921</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.849307942023211</v>
@@ -27730,7 +27622,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570105301168963</v>
+        <v>1.518832554114902</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.062027842543664</v>
@@ -27819,7 +27711,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.570141769002739</v>
+        <v>1.511389972955872</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.683203536545285</v>
@@ -27908,7 +27800,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.590618455316172</v>
+        <v>1.527045753943808</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.928084688836321</v>
@@ -27997,7 +27889,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608857266285986</v>
+        <v>1.53673267733947</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.607652824331549</v>
@@ -28086,7 +27978,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.617043542056098</v>
+        <v>1.538700238062697</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.710554223280545</v>
@@ -28175,7 +28067,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.626592869646224</v>
+        <v>1.535941703633816</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.675934823272294</v>
@@ -28264,7 +28156,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.627591950422938</v>
+        <v>1.538373402709488</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.934968232010768</v>
@@ -28353,7 +28245,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609695069454615</v>
+        <v>1.520885276613758</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.604970553663783</v>
@@ -28442,7 +28334,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.589784869980102</v>
+        <v>1.511301666247309</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.564674193574038</v>
@@ -28531,7 +28423,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590580266733724</v>
+        <v>1.51431126068129</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.399523412016765</v>
@@ -28620,7 +28512,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576930927936454</v>
+        <v>1.505259359094679</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.364900986612326</v>
@@ -28709,7 +28601,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.558675597467623</v>
+        <v>1.488549771810511</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.478207614123389</v>
@@ -28798,7 +28690,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560741562416757</v>
+        <v>1.488839889721319</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.561614669065828</v>
@@ -28887,7 +28779,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551157761854452</v>
+        <v>1.485279752747523</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.508770249871056</v>
@@ -28976,7 +28868,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.555314549853741</v>
+        <v>1.48707744356358</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.525942504066728</v>
@@ -29065,7 +28957,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553497324998725</v>
+        <v>1.486045546782371</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.485254049539209</v>
@@ -29154,7 +29046,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.549994137755933</v>
+        <v>1.483467842970566</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.585565038032847</v>
@@ -29243,7 +29135,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.540205693889139</v>
+        <v>1.471296242444102</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.468322498915597</v>
@@ -29332,7 +29224,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.53967134507214</v>
+        <v>1.472197451942775</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.452404946873058</v>
@@ -29421,7 +29313,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.537573330860571</v>
+        <v>1.472131714428722</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.440888052784808</v>
@@ -29510,7 +29402,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.540604277262702</v>
+        <v>1.47612207754394</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.43347789049289</v>
@@ -29599,7 +29491,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537465997151894</v>
+        <v>1.47166247150774</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.586762272746804</v>
@@ -29688,7 +29580,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553265580450629</v>
+        <v>1.48564296704886</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.488145794620208</v>
@@ -29777,7 +29669,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.597528618782557</v>
+        <v>1.51571149396304</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.837842290362587</v>
@@ -29866,7 +29758,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.610775799001738</v>
+        <v>1.52565441566681</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.989933437083837</v>
@@ -29955,7 +29847,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629763892904226</v>
+        <v>1.53739191101357</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.666234159782667</v>
@@ -30044,7 +29936,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.658279667870464</v>
+        <v>1.559295157286311</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.198112589893197</v>
@@ -30133,7 +30025,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.649405981084493</v>
+        <v>1.556832540215368</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.194338057939859</v>
@@ -30222,7 +30114,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662323765540357</v>
+        <v>1.557837076362466</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.062082941854336</v>
@@ -30311,7 +30203,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.635306110198279</v>
+        <v>1.538336469004879</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.828323776881789</v>
@@ -30400,7 +30292,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.633392348065734</v>
+        <v>1.541406446872642</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.66358278934456</v>
@@ -30489,7 +30381,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656710657220088</v>
+        <v>1.55608811129151</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.67788995137797</v>
@@ -30578,7 +30470,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663120523852585</v>
+        <v>1.567691492863149</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.71197899564919</v>
@@ -30667,7 +30559,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.663980569580534</v>
+        <v>1.563916018690412</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.578530364200343</v>
@@ -30756,7 +30648,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.64212884572293</v>
+        <v>1.54538085363921</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.47527449317645</v>
@@ -30845,7 +30737,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.635571360367964</v>
+        <v>1.527013204200992</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.506986619566494</v>
@@ -30934,7 +30826,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606123725924353</v>
+        <v>1.511875803579668</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.566780592870355</v>
@@ -31023,7 +30915,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.425983378701525</v>
+        <v>1.390561010821423</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.65102049323112</v>
@@ -31112,7 +31004,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.410859679355578</v>
+        <v>1.37698443956341</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.653243812156937</v>
@@ -31201,7 +31093,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.411698195356348</v>
+        <v>1.375031515505131</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.652537161804992</v>
@@ -31290,7 +31182,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.408781607515285</v>
+        <v>1.375436476582599</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.650135405829563</v>
@@ -31576,7 +31468,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.385959176096229</v>
+        <v>1.3788223162316</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.352554128483682</v>
@@ -31665,7 +31557,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.392317894349419</v>
+        <v>1.385690280891651</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.369402880156362</v>
@@ -31754,7 +31646,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.42719661762851</v>
+        <v>1.415077577563696</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.247306298748775</v>
@@ -31843,7 +31735,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.471187625936441</v>
+        <v>1.452499730788358</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.494470140995414</v>
@@ -31932,7 +31824,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.475498712697058</v>
+        <v>1.459320005336419</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.38400806167971</v>
@@ -32021,7 +31913,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.46573568164813</v>
+        <v>1.450410299675539</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.415081487644175</v>
@@ -32110,7 +32002,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.473198653243114</v>
+        <v>1.459606537476167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.425196708481016</v>
@@ -32199,7 +32091,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.452918184147487</v>
+        <v>1.44211159607679</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.414277568814488</v>
@@ -32288,7 +32180,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.4354044311336</v>
+        <v>1.426534579397399</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.401869400167905</v>
@@ -32377,7 +32269,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.418014835190317</v>
+        <v>1.415408609865735</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.415697517088513</v>
@@ -32466,7 +32358,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.411998337804008</v>
+        <v>1.41237404520551</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.298881270707491</v>
@@ -32555,7 +32447,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.389791331190888</v>
+        <v>1.387828952238873</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.378759619023434</v>
@@ -32644,7 +32536,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.360856120094118</v>
+        <v>1.360742307942488</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.447701576632641</v>
@@ -32733,7 +32625,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.349795356730194</v>
+        <v>1.350315994050693</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.479124362532485</v>
@@ -32822,7 +32714,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.30380257091316</v>
+        <v>1.305531911768669</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.015559184836824</v>
@@ -32911,7 +32803,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.299937603480396</v>
+        <v>1.304282669416758</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.964438094885593</v>
@@ -33000,7 +32892,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.309143204034486</v>
+        <v>1.309984622470838</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.975980788433174</v>
@@ -33089,7 +32981,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.31306410160534</v>
+        <v>1.315076827019565</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.956168323113127</v>
@@ -33178,7 +33070,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.326359088512019</v>
+        <v>1.324118283656985</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.033885619121986</v>
@@ -33267,7 +33159,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.329693438149343</v>
+        <v>1.326713763212654</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.972258700612193</v>
@@ -33356,7 +33248,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.341269077656378</v>
+        <v>1.334223177567129</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.973884187298708</v>
@@ -33445,7 +33337,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.333193756583964</v>
+        <v>1.323170980650317</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.937214696909735</v>
@@ -33534,7 +33426,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.364549340751509</v>
+        <v>1.345600421285083</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.891292865237358</v>
@@ -33623,7 +33515,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.382429647008615</v>
+        <v>1.355290525442388</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.037540108977202</v>
@@ -33712,7 +33604,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.3833737456048</v>
+        <v>1.354349340376823</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.906902871695964</v>
@@ -33801,7 +33693,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.393081829964621</v>
+        <v>1.355782120421036</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.854601948526211</v>
@@ -33890,7 +33782,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.392864177596614</v>
+        <v>1.354565641236528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.896629698661856</v>
@@ -33979,7 +33871,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.405810694622233</v>
+        <v>1.361037848886031</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.838047165808686</v>
@@ -34068,7 +33960,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.413146024278792</v>
+        <v>1.361308580392308</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.999318173250182</v>
@@ -34157,7 +34049,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.499867732491179</v>
+        <v>1.434243044250168</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.448015118744529</v>
@@ -34246,7 +34138,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529856448691362</v>
+        <v>1.452638800683295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.359440564420112</v>
@@ -34335,7 +34227,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.474065887330145</v>
+        <v>1.413970119090905</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.637483820972284</v>
@@ -34424,7 +34316,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.463913553299493</v>
+        <v>1.398456122841162</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.621107655871131</v>
@@ -34513,7 +34405,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.450325660048703</v>
+        <v>1.393452320209424</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.595568967378914</v>
@@ -34602,7 +34494,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447610232693743</v>
+        <v>1.384950361688545</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.54764514797524</v>
@@ -34691,7 +34583,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433091825467921</v>
+        <v>1.369644487921232</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.528774793286329</v>
@@ -34780,7 +34672,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.447471315800087</v>
+        <v>1.383806822723587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.452590200051287</v>
@@ -34869,7 +34761,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.447254397209134</v>
+        <v>1.382810028992584</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.463800821322641</v>
@@ -34958,7 +34850,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.441864496747228</v>
+        <v>1.379906940187976</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.383643510395016</v>
@@ -35047,7 +34939,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395992026726734</v>
+        <v>1.343347245023226</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.274809741922947</v>
@@ -35136,7 +35028,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.388952021438507</v>
+        <v>1.339533010644584</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.237211369863356</v>
@@ -35225,7 +35117,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.403918872030169</v>
+        <v>1.355075803535476</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.260863466877987</v>
@@ -35314,7 +35206,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.405786622305085</v>
+        <v>1.359303180424007</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.281062757575164</v>
@@ -35403,7 +35295,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.416413757953354</v>
+        <v>1.373767025276847</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.219497300413623</v>
@@ -35492,7 +35384,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.398932345121103</v>
+        <v>1.357207961467013</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.168929480783816</v>
@@ -35581,7 +35473,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.404356531251785</v>
+        <v>1.361780022064959</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.985907701161621</v>
@@ -35670,7 +35562,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.437109586663406</v>
+        <v>1.387755183136817</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.180839777853936</v>
@@ -35759,7 +35651,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.427132135568976</v>
+        <v>1.383298716584221</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.108084422468031</v>
@@ -35848,7 +35740,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.440584255842978</v>
+        <v>1.386657074145935</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.222906338366253</v>
@@ -35937,7 +35829,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.414171783409224</v>
+        <v>1.371030386559636</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.248003566088026</v>
@@ -36026,7 +35918,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.420733252659771</v>
+        <v>1.380789209006596</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.16285315119949</v>
@@ -36115,7 +36007,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.399584946722266</v>
+        <v>1.36206837664116</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.220905937697428</v>
@@ -36204,7 +36096,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.394335522248505</v>
+        <v>1.359981727808573</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.232460297629198</v>
@@ -36293,7 +36185,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.402304888174391</v>
+        <v>1.362551527590797</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.220907861447741</v>
@@ -36382,7 +36274,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.46822058655897</v>
+        <v>1.41165893816143</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.55700831271975</v>
@@ -36471,7 +36363,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.483869280561398</v>
+        <v>1.414825854346074</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.438873538248421</v>
@@ -36560,7 +36452,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.485455753622312</v>
+        <v>1.412319218988063</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.38716912667681</v>
@@ -36649,7 +36541,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.473224750601609</v>
+        <v>1.405547466169789</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.356739718195004</v>
@@ -36738,7 +36630,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.451351801555987</v>
+        <v>1.39092750300853</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.384692506120162</v>
@@ -36827,7 +36719,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.472706302859052</v>
+        <v>1.401794011020226</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.350617021095411</v>
@@ -36916,7 +36808,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.452912242448041</v>
+        <v>1.386878773671398</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.403113794683065</v>
